--- a/项目管理/进度计划/里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/里程碑1-周版本.xlsx
@@ -1,24 +1,190 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1440" yWindow="400" windowWidth="33620" windowHeight="18440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3-18周输出" sheetId="1" r:id="rId1"/>
     <sheet name="3-25周输出" sheetId="2" r:id="rId2"/>
     <sheet name="4-1周输出" sheetId="3" r:id="rId3"/>
-    <sheet name="工作表3" sheetId="4" r:id="rId4"/>
+    <sheet name="4-8周输出" sheetId="4" r:id="rId4"/>
     <sheet name="模板" sheetId="5" r:id="rId5"/>
+    <sheet name="附录" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>家帅 王</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>本周必须完成的任务
+超额任务，有可能在本周完成
+长期持续进行的工作</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>家帅 王</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>本周必须完成的任务
+超额任务，有可能在本周完成
+长期持续进行的工作</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>家帅 王</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>本周必须完成的任务
+超额任务，有可能在本周完成
+长期持续进行的工作</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>家帅 王</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>本周必须完成的任务
+超额任务，有可能在本周完成
+长期持续进行的工作</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="163">
   <si>
     <t>类别</t>
   </si>
@@ -413,69 +579,126 @@
     <t>1.使用Jira进行项目管理和缺陷管理，基本功能简介</t>
   </si>
   <si>
-    <t>2.xw给全员介绍核心玩法，demo初步规划？</t>
-  </si>
-  <si>
-    <t>3.木木，xw讨论里程碑1的计划（预计Day？）</t>
-  </si>
-  <si>
     <t>核心战斗框架设计（xw下周广播全体）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心战斗框架设计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据框架</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>结算</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>杨雪</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>U3d Ngui基础操作讲解</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流程框架（家园，副本入口）文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据框架（D3三方）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗框架设计（D1提交，三方）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算文档分析</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择角色界面临时方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔老师</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>share美术资源整理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.xw给全员介绍核心玩法，demo初步规划？(Day1 or Day3)</t>
   </si>
   <si>
     <t>Day1or3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主流程框架（家园，副本入口）文档</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Day？</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day6</t>
+  </si>
+  <si>
+    <t>Day7</t>
+  </si>
+  <si>
+    <t>Day8</t>
+  </si>
+  <si>
+    <t>Day9</t>
+  </si>
+  <si>
+    <t>Day10</t>
+  </si>
+  <si>
+    <t>Day11</t>
+  </si>
+  <si>
+    <t>Day12</t>
+  </si>
+  <si>
+    <t>Day13</t>
+  </si>
+  <si>
+    <t>Day14</t>
+  </si>
+  <si>
+    <t>Day15</t>
+  </si>
+  <si>
+    <t>3.木木，xw,zz讨论里程碑1的计划（预计Day？）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -530,12 +753,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -543,6 +760,46 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -571,21 +828,21 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -595,7 +852,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -610,8 +867,122 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -702,10 +1073,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="46">
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="4"/>
@@ -713,8 +1084,298 @@
     <cellStyle name="常规 8" xfId="5"/>
     <cellStyle name="常规_10-22周输出 2" xfId="6"/>
     <cellStyle name="常规_2-4周版本输出" xfId="7"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1054,29 +1715,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="2"/>
-    <col min="4" max="4" width="49.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.125" style="2"/>
+    <col min="3" max="3" width="10.1640625" style="2"/>
+    <col min="4" max="4" width="49.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="2"/>
+    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:14" ht="32">
+      <c r="A1" s="25"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1089,14 +1752,14 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -1117,7 +1780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:14" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1125,8 +1788,912 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="16">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:14" ht="16">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" ht="16">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="M5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" ht="16">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" ht="16">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" ht="16">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="16">
+      <c r="A9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="16">
+      <c r="B10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="16">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" ht="16">
+      <c r="A15" s="12"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" s="33"/>
+    </row>
+    <row r="16" spans="1:14" ht="16">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="1"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" ht="16">
+      <c r="A17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" ht="16">
+      <c r="A18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" ht="16">
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16">
+      <c r="A20" s="9"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="1:19" ht="16">
+      <c r="A21" s="12"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+    </row>
+    <row r="22" spans="1:19" ht="16">
+      <c r="A22" s="12"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="1:19" ht="16">
+      <c r="A23" s="12"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="1:19" ht="16">
+      <c r="A24" s="9"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N24" s="46"/>
+    </row>
+    <row r="25" spans="1:19" ht="16">
+      <c r="C25" s="8"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" ht="16">
+      <c r="A26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" ht="16">
+      <c r="A27" s="9"/>
+      <c r="B27" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="42"/>
+    </row>
+    <row r="28" spans="1:19" ht="16">
+      <c r="A28" s="9"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+    </row>
+    <row r="29" spans="1:19" ht="16">
+      <c r="A29" s="9"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="33"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="1:19" ht="16">
+      <c r="A30" s="9"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="42"/>
+      <c r="L30" s="33"/>
+      <c r="N30" s="33"/>
+    </row>
+    <row r="31" spans="1:19" ht="16">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="A32" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" s="1" customFormat="1" ht="32">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="20"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" s="1" customFormat="1" ht="32">
+      <c r="A34" s="25"/>
+      <c r="B34" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="20"/>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" s="1" customFormat="1" ht="32">
+      <c r="A35" s="3"/>
+      <c r="B35" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="20"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="A36" s="3"/>
+      <c r="B36" s="24"/>
+      <c r="F36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="A37" s="25"/>
+      <c r="B37" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="B38" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="B39" s="24"/>
+      <c r="F39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="B40" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="F41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="B42" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="F43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="B44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="F45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="F46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="B47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="D48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="D49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="D50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="D51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="D52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="20"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="D53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="D54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="20"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="F55" s="20"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="B56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="20"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="F57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="36"/>
+    </row>
+    <row r="58" spans="2:12" s="1" customFormat="1" ht="48">
+      <c r="B58" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="28"/>
+      <c r="F58" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K58" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="L58" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="30"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="A2:E1048576 F1:XFD1048576">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="2"/>
+    <col min="4" max="4" width="49.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="2"/>
+    <col min="7" max="7" width="13.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16">
+      <c r="A1" s="25"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1134,451 +2701,346 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="S2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="17.25">
+    </row>
+    <row r="3" spans="1:14" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
+      <c r="D3" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="4"/>
       <c r="L3" s="33"/>
-      <c r="S3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="17.25">
+    </row>
+    <row r="4" spans="1:14" ht="16">
       <c r="A4" s="3"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>133</v>
+      <c r="D4" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="4"/>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
-      <c r="S4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="17.25">
+    </row>
+    <row r="5" spans="1:14" ht="16">
       <c r="A5" s="3"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="C5" s="25"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="4"/>
       <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
       <c r="M5" s="33"/>
-      <c r="S5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="17.25">
+    </row>
+    <row r="6" spans="1:14" ht="16">
       <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="4"/>
       <c r="K6" s="33"/>
       <c r="M6" s="33"/>
     </row>
-    <row r="7" spans="1:20" ht="17.25">
+    <row r="7" spans="1:14" ht="16">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
-        <v>21</v>
+      <c r="C7" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="4"/>
       <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="S7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="17.25">
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" ht="16">
       <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="4"/>
-      <c r="S8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="17.25">
-      <c r="A9" s="9" t="s">
+      <c r="K8" s="33"/>
+      <c r="M8" s="33"/>
+    </row>
+    <row r="9" spans="1:14" ht="16">
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="K9" s="33"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="1:14" ht="16">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="16">
+      <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="S9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="17.25">
-      <c r="B10" s="10" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="16">
+      <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="17.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="17.25">
-      <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>41</v>
+      <c r="D12" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="17.25">
+        <v>114</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="16">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
-      <c r="S13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="17.25">
+    </row>
+    <row r="14" spans="1:14" ht="16">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="I14" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H14" s="14"/>
       <c r="N14" s="33"/>
-      <c r="S14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="17.25">
+    </row>
+    <row r="15" spans="1:14" ht="16">
       <c r="A15" s="12"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="I15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" s="33"/>
-      <c r="S15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="17.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="16">
       <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="S16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="17.25">
-      <c r="A17" s="12"/>
+    </row>
+    <row r="17" spans="1:19" ht="16">
+      <c r="A17" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="S17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="17.25">
-      <c r="A18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="S18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="17.25">
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="18" spans="1:19" ht="16">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:19" ht="16">
+      <c r="A19" s="9"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>54</v>
+      <c r="D19" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="16"/>
+        <v>118</v>
+      </c>
+      <c r="F19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="17.25">
+    </row>
+    <row r="20" spans="1:19" ht="16">
       <c r="A20" s="9"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="16"/>
+        <v>118</v>
+      </c>
+      <c r="F20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="S20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="17.25">
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:19" ht="16">
       <c r="A21" s="12"/>
       <c r="B21" s="1"/>
       <c r="C21" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="S21" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="17.25">
+        <v>63</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:19" ht="16">
       <c r="A22" s="12"/>
       <c r="B22" s="1"/>
       <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="16"/>
+        <v>122</v>
+      </c>
+      <c r="F22" s="16"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="S22" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="17.25">
-      <c r="A23" s="12"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:19" ht="16">
+      <c r="A23" s="9"/>
       <c r="B23" s="1"/>
       <c r="C23" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="16"/>
+        <v>122</v>
+      </c>
+      <c r="F23" s="16"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-    </row>
-    <row r="24" spans="1:19" ht="17.25">
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:19" ht="16">
       <c r="A24" s="9"/>
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="F24" s="16"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" s="46"/>
-      <c r="S24" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="17.25">
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:19" ht="16">
       <c r="C25" s="8"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="S25" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="17.25">
+    </row>
+    <row r="26" spans="1:19" ht="16">
       <c r="A26" s="9" t="s">
         <v>69</v>
       </c>
@@ -1586,15 +3048,12 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="20"/>
       <c r="I26"/>
-      <c r="S26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="17.25">
+    </row>
+    <row r="27" spans="1:19" ht="16">
       <c r="A27" s="9"/>
       <c r="B27" s="40" t="s">
         <v>15</v>
@@ -1603,97 +3062,81 @@
         <v>21</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="42"/>
-      <c r="S27" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="17.25">
+        <v>126</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="20"/>
+      <c r="J27" s="33"/>
+    </row>
+    <row r="28" spans="1:19" ht="16">
       <c r="A28" s="9"/>
       <c r="B28" s="42"/>
       <c r="C28" s="41" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="S28" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="17.25">
+        <v>128</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="20"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:19" ht="16">
       <c r="A29" s="9"/>
       <c r="B29" s="40"/>
       <c r="C29" s="41" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E29" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29"/>
       <c r="L29" s="33"/>
       <c r="N29" s="33"/>
-      <c r="S29" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="17.25">
+    </row>
+    <row r="30" spans="1:19" ht="16">
       <c r="A30" s="9"/>
       <c r="B30" s="40"/>
       <c r="C30" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="K30" s="42"/>
+      <c r="D30" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="20"/>
+      <c r="I30"/>
       <c r="L30" s="33"/>
       <c r="N30" s="33"/>
-      <c r="S30" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="17.25">
+    </row>
+    <row r="31" spans="1:19" ht="16">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:19" s="1" customFormat="1" ht="17.25">
+    <row r="32" spans="1:19" s="1" customFormat="1" ht="16">
       <c r="A32" s="22" t="s">
         <v>81</v>
       </c>
@@ -1709,11 +3152,9 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="S32" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="1" customFormat="1" ht="33">
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" s="1" customFormat="1" ht="32">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
         <v>83</v>
@@ -1721,15 +3162,13 @@
       <c r="D33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="20"/>
+      <c r="F33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="26"/>
       <c r="J33" s="20"/>
-      <c r="S33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="1" customFormat="1" ht="33">
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" s="1" customFormat="1" ht="32">
       <c r="A34" s="25"/>
       <c r="B34" s="24" t="s">
         <v>85</v>
@@ -1737,15 +3176,13 @@
       <c r="D34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="20"/>
+      <c r="F34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="26"/>
       <c r="J34" s="20"/>
-      <c r="S34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="1" customFormat="1" ht="33">
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" s="1" customFormat="1" ht="32">
       <c r="A35" s="3"/>
       <c r="B35" s="24" t="s">
         <v>87</v>
@@ -1753,282 +3190,302 @@
       <c r="D35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="20"/>
+      <c r="F35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="26"/>
       <c r="J35" s="20"/>
-      <c r="S35" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="1" customFormat="1">
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" s="1" customFormat="1" ht="16">
       <c r="A36" s="3"/>
       <c r="B36" s="24"/>
-      <c r="G36" s="20"/>
+      <c r="F36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="26"/>
       <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:19" s="1" customFormat="1">
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" s="1" customFormat="1" ht="16">
       <c r="A37" s="25"/>
       <c r="B37" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="20"/>
+      <c r="F37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="26"/>
       <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="1:19" s="1" customFormat="1">
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" s="1" customFormat="1" ht="16">
       <c r="B38" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="26"/>
       <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="1:19" s="1" customFormat="1">
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:19" s="1" customFormat="1" ht="16">
       <c r="B39" s="24"/>
-      <c r="G39" s="20"/>
+      <c r="F39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="26"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:19" s="1" customFormat="1">
+    <row r="40" spans="1:19" s="1" customFormat="1" ht="16">
       <c r="B40" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="20"/>
+      <c r="F40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="26"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:19" s="1" customFormat="1">
-      <c r="G41" s="20"/>
+    <row r="41" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="F41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="26"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="1:19" s="1" customFormat="1">
+    <row r="42" spans="1:19" s="1" customFormat="1" ht="16">
       <c r="B42" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="20"/>
+      <c r="F42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="26"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="1:19" s="1" customFormat="1">
-      <c r="G43" s="20"/>
+    <row r="43" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="F43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="26"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="1:19" s="1" customFormat="1">
+    <row r="44" spans="1:19" s="1" customFormat="1" ht="16">
       <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="20"/>
+      <c r="F44" s="20"/>
       <c r="H44" s="20"/>
       <c r="I44" s="26"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="1:19" s="1" customFormat="1">
-      <c r="G45" s="20"/>
+    <row r="45" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="F45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="26"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="1:19" s="1" customFormat="1">
-      <c r="G46" s="20"/>
+    <row r="46" spans="1:19" s="1" customFormat="1" ht="16">
+      <c r="F46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="26"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:19" s="1" customFormat="1">
+    <row r="47" spans="1:19" s="1" customFormat="1" ht="16">
       <c r="B47" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" s="20"/>
+        <v>130</v>
+      </c>
+      <c r="F47" s="20"/>
       <c r="H47" s="20"/>
       <c r="I47" s="26"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:19" s="1" customFormat="1">
+    <row r="48" spans="1:19" s="1" customFormat="1" ht="16">
       <c r="D48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" s="20"/>
+        <v>147</v>
+      </c>
+      <c r="F48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="26"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:12" s="1" customFormat="1">
+    <row r="49" spans="2:12" s="1" customFormat="1" ht="16">
       <c r="D49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G49" s="26"/>
+        <v>162</v>
+      </c>
+      <c r="F49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="26"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:12" s="1" customFormat="1">
-      <c r="D50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="26"/>
+    <row r="50" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="F50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="26"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:12" s="1" customFormat="1">
-      <c r="D51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="20"/>
+    <row r="51" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="F51" s="20"/>
+      <c r="H51" s="26"/>
       <c r="I51" s="26"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:12" s="1" customFormat="1">
-      <c r="D52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="26"/>
-      <c r="H52" s="20"/>
+    <row r="52" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="F52" s="20"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="26"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:12" s="1" customFormat="1">
-      <c r="D53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="20"/>
+    <row r="53" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="F53" s="20"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="26"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:12" s="1" customFormat="1">
-      <c r="D54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" s="26"/>
+    <row r="54" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" s="20"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="20"/>
       <c r="I54" s="26"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:12" s="1" customFormat="1">
-      <c r="G55" s="26"/>
+    <row r="55" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="F55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="26"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:12" s="1" customFormat="1">
-      <c r="B56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:12" s="1" customFormat="1">
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="36"/>
-    </row>
-    <row r="58" spans="2:12" s="1" customFormat="1" ht="33">
-      <c r="B58" s="28" t="s">
+      <c r="J55" s="36"/>
+    </row>
+    <row r="56" spans="2:12" s="1" customFormat="1" ht="32">
+      <c r="B56" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C56" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D56" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28" t="s">
+      <c r="E56" s="28"/>
+      <c r="F56" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="H56" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="H58" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38" t="s">
+      <c r="I56" s="37"/>
+      <c r="J56" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="K58" s="28" t="s">
+      <c r="K56" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="L58" s="39" t="s">
+      <c r="L56" s="39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="30"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
+    <row r="57" spans="2:12">
+      <c r="B57" s="30"/>
+      <c r="C57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="30"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B26 B27:B30 B31:B1048576">
-      <formula1>$S$8:$S$30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C15 C16:C26 C27:C30 C31:C1048576">
-      <formula1>$S$3:$S$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I26 I27:I30 I31:I1048576">
-      <formula1>$S$33:$S$35</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="A2:E1048576 F1:XFD1048576">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>模板!$S$32:$S$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T59"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="2"/>
-    <col min="4" max="4" width="49.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.125" style="2"/>
+    <col min="3" max="3" width="10.1640625" style="2"/>
+    <col min="4" max="4" width="49.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="2"/>
+    <col min="7" max="7" width="13.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:14" ht="16">
+      <c r="A1" s="25"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2041,14 +3498,14 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -2069,7 +3526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:14" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -2077,865 +3534,651 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="S2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="17.25">
+    </row>
+    <row r="3" spans="1:14" ht="16">
       <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>139</v>
-      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
       <c r="L3" s="33"/>
-      <c r="S3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="17.25">
+    </row>
+    <row r="4" spans="1:14" ht="16">
       <c r="A4" s="3"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
-      <c r="S4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="17.25">
+    </row>
+    <row r="5" spans="1:14" ht="16">
       <c r="A5" s="3"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
       <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
       <c r="M5" s="33"/>
     </row>
-    <row r="6" spans="1:20" ht="17.25">
+    <row r="6" spans="1:14" ht="16">
       <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="4"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
       <c r="K6" s="33"/>
       <c r="M6" s="33"/>
-      <c r="S6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="17.25">
+    </row>
+    <row r="7" spans="1:14" ht="16">
       <c r="A7" s="3"/>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
       <c r="K7" s="33"/>
-      <c r="M7" s="33"/>
-    </row>
-    <row r="8" spans="1:20" ht="17.25">
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" ht="16">
       <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="16">
+      <c r="A9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="16">
+      <c r="B10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="K8" s="33"/>
-      <c r="M8" s="33"/>
-    </row>
-    <row r="9" spans="1:20" ht="17.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="S9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="17.25">
-      <c r="A10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
-      <c r="S10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="17.25">
-      <c r="B11" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="16">
+      <c r="B11" s="10"/>
       <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="S11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="17.25">
+      <c r="D11" s="11"/>
+      <c r="E11" s="25"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="16">
+      <c r="A12" s="9"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="I12" s="4"/>
-      <c r="S12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="17.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="S13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="17.25">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="16">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="25"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="5"/>
+      <c r="N13" s="33"/>
+    </row>
+    <row r="14" spans="1:14" ht="16">
       <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="B14" s="25"/>
       <c r="C14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="25"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="5"/>
       <c r="N14" s="33"/>
-      <c r="S14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="17.25">
+    </row>
+    <row r="15" spans="1:14" ht="16">
       <c r="A15" s="12"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="1"/>
-      <c r="G15" s="14"/>
-      <c r="N15" s="33"/>
-      <c r="S15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="17.25">
+      <c r="E15" s="25"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="16">
       <c r="A16" s="12"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="S16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="17.25">
+      <c r="E16" s="25"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" ht="16">
       <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="1"/>
-      <c r="S17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="17.25">
-      <c r="A18" s="12"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="16">
+      <c r="A18" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="S18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="17.25">
-      <c r="A19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="S19" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="17.25">
-      <c r="B20" s="1" t="s">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="16">
+      <c r="B19" s="25" t="s">
         <v>15</v>
       </c>
+      <c r="C19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="16">
+      <c r="A20" s="9"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-      <c r="S20" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="17.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="1"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="16">
+      <c r="A21" s="12"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-      <c r="S21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="17.25">
+      <c r="D21" s="25"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" ht="16">
       <c r="A22" s="12"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="17"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="16"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
-      <c r="S22" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="17.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="1"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" ht="16">
+      <c r="A23" s="9"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" ht="16">
+      <c r="C24" s="8"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" ht="16">
+      <c r="A25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" ht="16">
+      <c r="A26" s="9"/>
+      <c r="B26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="S23" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="17.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-      <c r="S24" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="17.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="1:19" ht="17.25">
-      <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="S26" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="17.25">
-      <c r="A27" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27"/>
-      <c r="S27" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="17.25">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="33"/>
+    </row>
+    <row r="27" spans="1:14" ht="16">
+      <c r="A27" s="9"/>
+      <c r="C27" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" ht="16">
       <c r="A28" s="9"/>
-      <c r="B28" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="41" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="20"/>
-      <c r="J28" s="33"/>
-      <c r="S28" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="17.25">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="5"/>
+      <c r="L28" s="33"/>
+      <c r="N28" s="33"/>
+    </row>
+    <row r="29" spans="1:14" ht="16">
       <c r="A29" s="9"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29"/>
-      <c r="S29" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="17.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="21"/>
-      <c r="I30"/>
-      <c r="L30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="S30" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="17.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31"/>
-      <c r="L31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="S31" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="17.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" s="1" customFormat="1" ht="17.25">
-      <c r="A33" s="22" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="5"/>
+      <c r="L29" s="33"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="1:14" ht="16">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="25" customFormat="1" ht="16">
+      <c r="A31" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="S33" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="1" customFormat="1" ht="33">
-      <c r="A34" s="23"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" s="25" customFormat="1" ht="32">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" s="25" customFormat="1" ht="32">
+      <c r="B33" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:10" s="25" customFormat="1" ht="32">
+      <c r="A34" s="3"/>
       <c r="B34" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="20"/>
+      <c r="F34" s="20"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="26"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="20"/>
-      <c r="S34" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="1" customFormat="1" ht="33">
-      <c r="A35" s="25"/>
-      <c r="B35" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="20"/>
+    </row>
+    <row r="35" spans="1:10" s="25" customFormat="1" ht="16">
+      <c r="A35" s="3"/>
+      <c r="B35" s="24"/>
+      <c r="F35" s="20"/>
       <c r="H35" s="20"/>
-      <c r="I35" s="26"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="20"/>
-      <c r="S35" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="1" customFormat="1" ht="33">
-      <c r="A36" s="3"/>
+    </row>
+    <row r="36" spans="1:10" s="25" customFormat="1" ht="16">
       <c r="B36" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" s="20"/>
+        <v>89</v>
+      </c>
+      <c r="F36" s="20"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="26"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="20"/>
-      <c r="S36" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="1" customFormat="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="24"/>
-      <c r="G37" s="20"/>
+    </row>
+    <row r="37" spans="1:10" s="25" customFormat="1" ht="16">
+      <c r="B37" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="20"/>
       <c r="H37" s="20"/>
-      <c r="I37" s="26"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:19" s="1" customFormat="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="20"/>
+    <row r="38" spans="1:10" s="25" customFormat="1" ht="16">
+      <c r="B38" s="24"/>
+      <c r="F38" s="20"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="26"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:19" s="1" customFormat="1">
+    <row r="39" spans="1:10" s="25" customFormat="1" ht="16">
       <c r="B39" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="F39" s="20"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="26"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:19" s="1" customFormat="1">
-      <c r="B40" s="24"/>
-      <c r="G40" s="20"/>
+    <row r="40" spans="1:10" s="25" customFormat="1" ht="16">
+      <c r="F40" s="20"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="26"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:19" s="1" customFormat="1">
-      <c r="B41" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41" s="20"/>
+    <row r="41" spans="1:10" s="25" customFormat="1" ht="16">
+      <c r="B41" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="20"/>
       <c r="H41" s="20"/>
-      <c r="I41" s="26"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="1:19" s="1" customFormat="1">
-      <c r="G42" s="20"/>
+    <row r="42" spans="1:10" s="25" customFormat="1" ht="16">
+      <c r="F42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="26"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="1:19" s="1" customFormat="1">
-      <c r="B43" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G43" s="20"/>
+    <row r="43" spans="1:10" s="25" customFormat="1" ht="16">
+      <c r="B43" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="20"/>
       <c r="H43" s="20"/>
-      <c r="I43" s="26"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="1:19" s="1" customFormat="1">
-      <c r="G44" s="20"/>
+    <row r="44" spans="1:10" s="25" customFormat="1" ht="16">
+      <c r="F44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="26"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="1:19" s="1" customFormat="1">
-      <c r="B45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="20"/>
+    <row r="45" spans="1:10" s="25" customFormat="1" ht="16">
+      <c r="F45" s="20"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="26"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="1:19" s="1" customFormat="1">
-      <c r="G46" s="20"/>
+    <row r="46" spans="1:10" s="25" customFormat="1" ht="16">
+      <c r="B46" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="20"/>
       <c r="H46" s="20"/>
-      <c r="I46" s="26"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:19" s="1" customFormat="1">
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="26"/>
+    <row r="47" spans="1:10" s="25" customFormat="1" ht="16">
+      <c r="F47" s="20"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:19" s="1" customFormat="1">
-      <c r="B48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="26"/>
+    <row r="48" spans="1:10" s="25" customFormat="1" ht="16">
+      <c r="F48" s="20"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:12" s="1" customFormat="1">
-      <c r="D49" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="26"/>
+    <row r="49" spans="2:12" s="25" customFormat="1" ht="16">
+      <c r="F49" s="20"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:12" s="1" customFormat="1">
-      <c r="D50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G50" s="20"/>
+    <row r="50" spans="2:12" s="25" customFormat="1" ht="16">
+      <c r="B50" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="20"/>
-      <c r="I50" s="26"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:12" s="1" customFormat="1">
-      <c r="G51" s="20"/>
+    <row r="51" spans="2:12" s="25" customFormat="1" ht="16">
+      <c r="F51" s="20"/>
       <c r="H51" s="20"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:12" s="1" customFormat="1">
-      <c r="G52" s="26"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:12" s="1" customFormat="1">
-      <c r="G53" s="26"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:12" s="1" customFormat="1">
-      <c r="G54" s="26"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:12" s="1" customFormat="1">
-      <c r="B55" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:12" s="1" customFormat="1">
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="36"/>
-    </row>
-    <row r="57" spans="2:12" s="1" customFormat="1" ht="33">
-      <c r="B57" s="28" t="s">
+      <c r="I51" s="5"/>
+      <c r="J51" s="36"/>
+    </row>
+    <row r="52" spans="2:12" s="25" customFormat="1" ht="32">
+      <c r="B52" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C52" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D52" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28" t="s">
+      <c r="E52" s="39"/>
+      <c r="F52" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="H57" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38" t="s">
+      <c r="I52" s="37"/>
+      <c r="J52" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="K57" s="28" t="s">
+      <c r="K52" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="L57" s="39" t="s">
+      <c r="L52" s="39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="2:12">
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="30"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
+    <row r="53" spans="2:12">
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>$S$9:$S$31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>$S$3:$S$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
-      <formula1>$S$34:$S$36</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I30 I69:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C30 C69:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B30 B69:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F30</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="2"/>
-    <col min="4" max="4" width="49.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.125" style="2"/>
+    <col min="3" max="3" width="10.1640625" style="2"/>
+    <col min="4" max="4" width="49.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="2"/>
+    <col min="7" max="7" width="13.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.25">
+    <row r="1" spans="1:14" ht="16">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2949,14 +4192,14 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -2977,7 +4220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:14" ht="16">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -2985,20 +4228,17 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="S2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="17.25">
+    </row>
+    <row r="3" spans="1:14" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -3009,20 +4249,12 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
       <c r="L3" s="33"/>
-      <c r="S3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="17.25">
+    </row>
+    <row r="4" spans="1:14" ht="16">
       <c r="A4" s="3"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
@@ -3030,23 +4262,15 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
-      <c r="S4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="17.25">
+    </row>
+    <row r="5" spans="1:14" ht="16">
       <c r="A5" s="3"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
@@ -3054,22 +4278,14 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
       <c r="K5" s="33"/>
       <c r="M5" s="33"/>
-      <c r="S5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="17.25">
+    </row>
+    <row r="6" spans="1:14" ht="16">
       <c r="A6" s="3"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
@@ -3077,16 +4293,14 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
       <c r="K6" s="33"/>
       <c r="M6" s="33"/>
     </row>
-    <row r="7" spans="1:20" ht="17.25">
+    <row r="7" spans="1:14" ht="16">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
@@ -3094,45 +4308,34 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
-      <c r="S7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="17.25">
+    </row>
+    <row r="8" spans="1:14" ht="16">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-      <c r="S8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="17.25">
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="16">
       <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="S9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="17.25">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="16">
       <c r="B10" s="10" t="s">
         <v>34</v>
       </c>
@@ -3141,31 +4344,23 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="I10" s="4"/>
-      <c r="S10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="17.25">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="16">
       <c r="B11" s="10"/>
       <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
-      <c r="I11" s="4"/>
-      <c r="S11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="17.25">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="16">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
-      <c r="S12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="17.25">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="16">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
         <v>44</v>
@@ -3175,13 +4370,11 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
-      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="5"/>
       <c r="N13" s="33"/>
-      <c r="S13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="17.25">
+    </row>
+    <row r="14" spans="1:14" ht="16">
       <c r="A14" s="12"/>
       <c r="B14" s="1"/>
       <c r="C14" s="11" t="s">
@@ -3189,13 +4382,11 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
-      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="5"/>
       <c r="N14" s="33"/>
-      <c r="S14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="17.25">
+    </row>
+    <row r="15" spans="1:14" ht="16">
       <c r="A15" s="12"/>
       <c r="B15" s="1"/>
       <c r="C15" s="11" t="s">
@@ -3203,39 +4394,31 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="1"/>
-      <c r="S15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="17.25">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="16">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="1"/>
-      <c r="S16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="17.25">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" ht="16">
       <c r="A17" s="12"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="S17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="17.25">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="16">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="S18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="17.25">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="16">
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
@@ -3244,14 +4427,11 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="S19" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="17.25">
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="16">
       <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="8" t="s">
@@ -3259,14 +4439,11 @@
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-      <c r="S20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="17.25">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="16">
       <c r="A21" s="12"/>
       <c r="B21" s="1"/>
       <c r="C21" s="8" t="s">
@@ -3274,14 +4451,11 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="15"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-      <c r="S21" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="17.25">
+      <c r="F21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" ht="16">
       <c r="A22" s="12"/>
       <c r="B22" s="1"/>
       <c r="C22" s="8" t="s">
@@ -3289,14 +4463,11 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="G22" s="16"/>
+      <c r="F22" s="16"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="S22" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="17.25">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" ht="16">
       <c r="A23" s="9"/>
       <c r="B23" s="1"/>
       <c r="C23" s="8" t="s">
@@ -3304,22 +4475,17 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="15"/>
-      <c r="G23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-      <c r="S23" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="17.25">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" ht="16">
       <c r="C24" s="8"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
-      <c r="S24" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="17.25">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" ht="16">
       <c r="A25" s="9" t="s">
         <v>69</v>
       </c>
@@ -3327,15 +4493,12 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25"/>
-      <c r="S25" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="17.25">
+      <c r="F25" s="21"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" ht="16">
       <c r="A26" s="9"/>
       <c r="B26" s="19" t="s">
         <v>15</v>
@@ -3345,29 +4508,24 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="33"/>
-      <c r="S26" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="17.25">
+    </row>
+    <row r="27" spans="1:14" ht="16">
       <c r="A27" s="9"/>
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27"/>
-      <c r="S27" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="17.25">
+      <c r="F27" s="21"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" ht="16">
       <c r="A28" s="9"/>
       <c r="B28" s="19"/>
       <c r="C28" s="1" t="s">
@@ -3375,17 +4533,14 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="21"/>
-      <c r="I28"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="5"/>
       <c r="L28" s="33"/>
       <c r="N28" s="33"/>
-      <c r="S28" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="17.25">
+    </row>
+    <row r="29" spans="1:14" ht="16">
       <c r="A29" s="9"/>
       <c r="B29" s="19"/>
       <c r="C29" s="1" t="s">
@@ -3393,22 +4548,20 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="5"/>
       <c r="L29" s="33"/>
       <c r="N29" s="33"/>
-      <c r="S29" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="17.25">
+    </row>
+    <row r="30" spans="1:14" ht="16">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:19" s="1" customFormat="1" ht="17.25">
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="1" customFormat="1" ht="16">
       <c r="A31" s="22" t="s">
         <v>81</v>
       </c>
@@ -3418,17 +4571,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="34"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="35"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="S31" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="1" customFormat="1" ht="33">
+    </row>
+    <row r="32" spans="1:14" s="1" customFormat="1" ht="32">
       <c r="A32" s="23"/>
       <c r="B32" s="24" t="s">
         <v>83</v>
@@ -3436,15 +4586,12 @@
       <c r="D32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="20"/>
+      <c r="F32" s="20"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="26"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="20"/>
-      <c r="S32" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="1" customFormat="1" ht="33">
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="32">
       <c r="A33" s="25"/>
       <c r="B33" s="24" t="s">
         <v>85</v>
@@ -3452,15 +4599,12 @@
       <c r="D33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="20"/>
+      <c r="F33" s="20"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="26"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="20"/>
-      <c r="S33" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="1" customFormat="1" ht="33">
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="32">
       <c r="A34" s="3"/>
       <c r="B34" s="24" t="s">
         <v>87</v>
@@ -3468,143 +4612,140 @@
       <c r="D34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="20"/>
+      <c r="F34" s="20"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="26"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="20"/>
-      <c r="S34" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="1" customFormat="1">
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="16">
       <c r="A35" s="3"/>
       <c r="B35" s="24"/>
-      <c r="G35" s="20"/>
+      <c r="F35" s="20"/>
       <c r="H35" s="20"/>
-      <c r="I35" s="26"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="1:19" s="1" customFormat="1">
+    <row r="36" spans="1:10" s="1" customFormat="1" ht="16">
       <c r="A36" s="25"/>
       <c r="B36" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="20"/>
+      <c r="F36" s="20"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="26"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:19" s="1" customFormat="1">
+    <row r="37" spans="1:10" s="1" customFormat="1" ht="16">
       <c r="B37" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G37" s="20"/>
+      <c r="F37" s="20"/>
       <c r="H37" s="20"/>
-      <c r="I37" s="26"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:19" s="1" customFormat="1">
+    <row r="38" spans="1:10" s="1" customFormat="1" ht="16">
       <c r="B38" s="24"/>
-      <c r="G38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="26"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:19" s="1" customFormat="1">
+    <row r="39" spans="1:10" s="1" customFormat="1" ht="16">
       <c r="B39" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="20"/>
+      <c r="F39" s="20"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="26"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:19" s="1" customFormat="1">
-      <c r="G40" s="20"/>
+    <row r="40" spans="1:10" s="1" customFormat="1" ht="16">
+      <c r="F40" s="20"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="26"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:19" s="1" customFormat="1">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="16">
       <c r="B41" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="20"/>
+      <c r="F41" s="20"/>
       <c r="H41" s="20"/>
-      <c r="I41" s="26"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="1:19" s="1" customFormat="1">
-      <c r="G42" s="20"/>
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="16">
+      <c r="F42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="26"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="1:19" s="1" customFormat="1">
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="16">
       <c r="B43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="20"/>
+      <c r="F43" s="20"/>
       <c r="H43" s="20"/>
-      <c r="I43" s="26"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="1:19" s="1" customFormat="1">
-      <c r="G44" s="20"/>
+    <row r="44" spans="1:10" s="1" customFormat="1" ht="16">
+      <c r="F44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="26"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="1:19" s="1" customFormat="1">
-      <c r="G45" s="20"/>
+    <row r="45" spans="1:10" s="1" customFormat="1" ht="16">
+      <c r="F45" s="20"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="26"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="1:19" s="1" customFormat="1">
+    <row r="46" spans="1:10" s="1" customFormat="1" ht="16">
       <c r="B46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G46" s="20"/>
+      <c r="F46" s="20"/>
       <c r="H46" s="20"/>
-      <c r="I46" s="26"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:19" s="1" customFormat="1">
-      <c r="G47" s="26"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="26"/>
+    <row r="47" spans="1:10" s="1" customFormat="1" ht="16">
+      <c r="F47" s="20"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:19" s="1" customFormat="1">
-      <c r="G48" s="26"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="26"/>
+    <row r="48" spans="1:10" s="1" customFormat="1" ht="16">
+      <c r="F48" s="20"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:12" s="1" customFormat="1">
-      <c r="G49" s="26"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="26"/>
+    <row r="49" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="F49" s="20"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:12" s="1" customFormat="1">
+    <row r="50" spans="2:12" s="1" customFormat="1" ht="16">
       <c r="B50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="20"/>
-      <c r="I50" s="26"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:12" s="1" customFormat="1">
-      <c r="G51" s="20"/>
+    <row r="51" spans="2:12" s="1" customFormat="1" ht="16">
+      <c r="F51" s="20"/>
       <c r="H51" s="20"/>
-      <c r="I51" s="26"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="36"/>
     </row>
-    <row r="52" spans="2:12" s="1" customFormat="1" ht="33">
+    <row r="52" spans="2:12" s="1" customFormat="1" ht="32">
       <c r="B52" s="28" t="s">
         <v>104</v>
       </c>
@@ -3615,14 +4756,14 @@
         <v>106</v>
       </c>
       <c r="E52" s="28"/>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>108</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>109</v>
       </c>
       <c r="I52" s="37"/>
       <c r="J52" s="38" t="s">
@@ -3641,27 +4782,384 @@
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
       <c r="F53" s="31"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="32"/>
       <c r="I53" s="31"/>
       <c r="J53" s="31"/>
       <c r="K53" s="31"/>
       <c r="L53" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>$S$8:$S$29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>$S$3:$S$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
-      <formula1>$S$32:$S$34</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B30 B69:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C30 C69:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I30 I69:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F30</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" s="49" customFormat="1" ht="16">
+      <c r="A2" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="E2" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="16">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" ht="16">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="1:3" ht="16">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="1:3" ht="16">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="1:3" ht="16">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="A2:C6 B7:C29 E2:E24 A30:C30 A35:C35 B31:C34 G2:G5">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I25">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/项目管理/进度计划/里程碑1-周版本.xlsx
+++ b/项目管理/进度计划/里程碑1-周版本.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="400" windowWidth="33620" windowHeight="18440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1440" yWindow="400" windowWidth="33620" windowHeight="18440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3-18周输出" sheetId="1" r:id="rId1"/>
     <sheet name="3-25周输出" sheetId="2" r:id="rId2"/>
-    <sheet name="4-1周输出" sheetId="3" r:id="rId3"/>
-    <sheet name="4-8周输出" sheetId="4" r:id="rId4"/>
-    <sheet name="模板" sheetId="5" r:id="rId5"/>
-    <sheet name="附录" sheetId="6" r:id="rId6"/>
+    <sheet name="模板" sheetId="5" r:id="rId3"/>
+    <sheet name="附录" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -143,48 +141,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>家帅 王</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>本周必须完成的任务
-超额任务，有可能在本周完成
-长期持续进行的工作</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">周版本内必须完成的任务若未完成必须标注‘未完成’，超额和长期任务若未完成可不标注
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="163">
   <si>
     <t>类别</t>
   </si>
@@ -1124,187 +1082,7 @@
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1738,7 +1516,7 @@
     <col min="9" max="16384" width="10.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="32">
+    <row r="1" spans="1:14" ht="16">
       <c r="A1" s="25"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2530,7 +2308,7 @@
       <c r="I57" s="26"/>
       <c r="J57" s="36"/>
     </row>
-    <row r="58" spans="2:12" s="1" customFormat="1" ht="48">
+    <row r="58" spans="2:12" s="1" customFormat="1" ht="32">
       <c r="B58" s="28" t="s">
         <v>104</v>
       </c>
@@ -2577,12 +2355,12 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2:E1048576 F1:XFD1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2623,7 +2401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3413,12 +3191,12 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2:E1048576 F1:XFD1048576">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3465,705 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="2"/>
-    <col min="4" max="4" width="49.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="2"/>
-    <col min="7" max="7" width="13.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.1640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="16">
-      <c r="A1" s="25"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="16">
-      <c r="A3" s="3"/>
-      <c r="B3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="L3" s="33"/>
-    </row>
-    <row r="4" spans="1:14" ht="16">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="1:14" ht="16">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="K5" s="33"/>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" ht="16">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="K6" s="33"/>
-      <c r="M6" s="33"/>
-    </row>
-    <row r="7" spans="1:14" ht="16">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" ht="16">
-      <c r="A8" s="3"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="16">
-      <c r="A9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="16">
-      <c r="B10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="16">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="25"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" ht="16">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="16">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="25"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="5"/>
-      <c r="N13" s="33"/>
-    </row>
-    <row r="14" spans="1:14" ht="16">
-      <c r="A14" s="12"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="25"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="5"/>
-      <c r="N14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" ht="16">
-      <c r="A15" s="12"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="25"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" ht="16">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="25"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" ht="16">
-      <c r="A17" s="12"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" ht="16">
-      <c r="A18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="16">
-      <c r="B19" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" ht="16">
-      <c r="A20" s="9"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" ht="16">
-      <c r="A21" s="12"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" ht="16">
-      <c r="A22" s="12"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" ht="16">
-      <c r="A23" s="9"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" ht="16">
-      <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" ht="16">
-      <c r="A25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" ht="16">
-      <c r="A26" s="9"/>
-      <c r="B26" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="33"/>
-    </row>
-    <row r="27" spans="1:14" ht="16">
-      <c r="A27" s="9"/>
-      <c r="C27" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" ht="16">
-      <c r="A28" s="9"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="5"/>
-      <c r="L28" s="33"/>
-      <c r="N28" s="33"/>
-    </row>
-    <row r="29" spans="1:14" ht="16">
-      <c r="A29" s="9"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="5"/>
-      <c r="L29" s="33"/>
-      <c r="N29" s="33"/>
-    </row>
-    <row r="30" spans="1:14" ht="16">
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" s="25" customFormat="1" ht="16">
-      <c r="A31" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" s="25" customFormat="1" ht="32">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="1:10" s="25" customFormat="1" ht="32">
-      <c r="B33" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="1:10" s="25" customFormat="1" ht="32">
-      <c r="A34" s="3"/>
-      <c r="B34" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="A35" s="3"/>
-      <c r="B35" s="24"/>
-      <c r="F35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B36" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B37" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B38" s="24"/>
-      <c r="F38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B39" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="F40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B41" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="F42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B43" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="F44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="F45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="B46" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="F47" s="20"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="1:10" s="25" customFormat="1" ht="16">
-      <c r="F48" s="20"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:12" s="25" customFormat="1" ht="16">
-      <c r="F49" s="20"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:12" s="25" customFormat="1" ht="16">
-      <c r="B50" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:12" s="25" customFormat="1" ht="16">
-      <c r="F51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="36"/>
-    </row>
-    <row r="52" spans="2:12" s="25" customFormat="1" ht="32">
-      <c r="B52" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G52" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="I52" s="37"/>
-      <c r="J52" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="K52" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="L52" s="39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$G$3:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>I1:I30 I69:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$A$3:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C30 C69:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$E$3:$E$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B30 B69:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>附录!$I$3:$I$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F30</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4792,7 +3873,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4835,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -5145,12 +4226,12 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C29 E2:E24 A30:C30 A35:C35 B31:C34 G2:G5">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I25">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
